--- a/src/main/resources/static/data/producsdetail.xlsx
+++ b/src/main/resources/static/data/producsdetail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunba\SoftyBakery\src\main\resources\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zalo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{567FDFD1-DC7A-4AB4-B9E1-73B9948F361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C56000-4D5B-40E8-BFEA-03C57D5D0C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86DAC1F2-D311-44C8-97FA-2D8CC09AEE2F}"/>
   </bookViews>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_description</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>storage_instructions</t>
+  </si>
   <si>
     <t xml:space="preserve">           &lt;p&gt;&lt;strong&gt;Bánh mì Su Kem tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
           &lt;ul&gt;
@@ -92,16 +104,6 @@
           &lt;/ul&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Bánh mì Tropical mocktail tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
-          &lt;ul&gt;
- &lt;li&gt; Nếu cocktail quyến rũ bởi men cay, là sự hòa quyện tinh tế của rượu. Thì Mocktail lại khiến người ta say bởi hương vị ngọt ngào nhẹ nhàng của sự kết hợp giữa các loại nước uống sẵn có và trái cây tươi, là hương thơm đặc trưng của các loại trái tươi.  Vị ngọt ngào của của những miếng dâu tươi kết hợp với lát chanh chua mát, tạo nên một sự cân bằng hoàn hảo. 
-  &lt;/li&gt;
- &lt;li&gt;Được trang trí một lát chanh mỏng , trái dâu, bạc hà. Khi thưởng thức Tropical mocktail chắc chắn sẽ xua tan cơn nóng trong mùa hè, tạo một cảm giác mát lạnh và cực kỳ sảng khoái.
- &lt;/li&gt;
-          &lt;/ul&gt; 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Blueberry mint mocktail tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
           &lt;ul&gt;
           &lt;li&gt;Blueberry mint mocktail chanh việt quất Paleo này là một thức uống sảng khoái và thơm ngon mà bất cứ ai cũng có thể thưởng thức. Những quả việt quất ngọt ngào rất hợp với chanh thơm, chỉ cần thêm nước có ga yêu thích của bạn để có đồ uống sủi bọt hoàn hảo.
@@ -186,16 +188,6 @@
  &lt;li&gt;Được trang trí một lát chanh mỏng , trái dâu, bạc hà. Khi thưởng thức 'Herbal mocktail chắc chắn sẽ xua tan cơn nóng trong mùa hè, tạo một cảm giác mát lạnh và cực kỳ sảng khoái.
  &lt;/li&gt;
           &lt;/ul&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bánh mì ốp la là m  &lt;p&gt;&lt;strong&gt;Bánh mì Thịt Nguội tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
-          &lt;ul&gt;
-          &lt;li&gt; 
-Bánh mì thịt nguội là một món ăn không còn xa lạ với người Việt chúng ta. Bất kỳ bữa ăn nào trong ngày, nếu cần một món ăn nhanh, gọn và đơn giản thì Bánh mì thịt nguội chính là một sự lựa chọn vô cùng hợp lý. Không cầu kì nhưng vẫn là món ăn cung cấp đủ năng lượng để bạn có thể hoạt động trong ngày dài.
-&lt;/li&gt;
-&lt;li&gt;Bánh mì thịt  nguội  luôn được làm nóng khi phục vụ thực khách. Một ổ bánh mì nóng giòn, được kẹp bên trong là những miếng thịt nguột cắt mỏng và những miếng da heo thái theo sợi, kèm theo là những  lát cà chua, những  salad tươi xanh. Ăn một miếng là sẽ cảm nhận được miếng thịt nguột mềm mềm và những miếng da thái sợi dai dai cùng với đó là một chút tương, chút tiêu xay nhuyễn hoặc tương ớt đi kèm tùy theo khẩu vị thì chao ôi, thật là ngon phải biết.&lt;/li&gt;
-          &lt;/ul&gt; 
-</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;p&gt;&lt;strong&gt;Cà Phê Sữa tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
@@ -531,18 +523,206 @@
 &lt;/li&gt;
   &lt;/ul&gt;  </t>
   </si>
+  <si>
+    <t xml:space="preserve">  &lt;p&gt;&lt;strong&gt;Bánh mì Thịt Nguội tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
+          &lt;ul&gt;
+          &lt;li&gt; 
+Bánh mì thịt nguội là một món ăn không còn xa lạ với người Việt chúng ta. Bất kỳ bữa ăn nào trong ngày, nếu cần một món ăn nhanh, gọn và đơn giản thì Bánh mì thịt nguội chính là một sự lựa chọn vô cùng hợp lý. Không cầu kì nhưng vẫn là món ăn cung cấp đủ năng lượng để bạn có thể hoạt động trong ngày dài.
+&lt;/li&gt;
+&lt;li&gt;Bánh mì thịt  nguội  luôn được làm nóng khi phục vụ thực khách. Một ổ bánh mì nóng giòn, được kẹp bên trong là những miếng thịt nguột cắt mỏng và những miếng da heo thái theo sợi, kèm theo là những  lát cà chua, những  salad tươi xanh. Ăn một miếng là sẽ cảm nhận được miếng thịt nguột mềm mềm và những miếng da thái sợi dai dai cùng với đó là một chút tương, chút tiêu xay nhuyễn hoặc tương ớt đi kèm tùy theo khẩu vị thì chao ôi, thật là ngon phải biết.&lt;/li&gt;
+          &lt;/ul&gt; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Tropical mocktail tại Softy Bakery:&lt;/strong&gt;&lt;/p&gt;
+          &lt;ul&gt;
+ &lt;li&gt; Nếu cocktail quyến rũ bởi men cay, là sự hòa quyện tinh tế của rượu. Thì Mocktail lại khiến người ta say bởi hương vị ngọt ngào nhẹ nhàng của sự kết hợp giữa các loại nước uống sẵn có và trái cây tươi, là hương thơm đặc trưng của các loại trái tươi.  Vị ngọt ngào của của những miếng dâu tươi kết hợp với lát chanh chua mát, tạo nên một sự cân bằng hoàn hảo. 
+  &lt;/li&gt;
+ &lt;li&gt;Được trang trí một lát chanh mỏng , trái dâu, bạc hà. Khi thưởng thức Tropical mocktail chắc chắn sẽ xua tan cơn nóng trong mùa hè, tạo một cảm giác mát lạnh và cực kỳ sảng khoái.
+ &lt;/li&gt;
+          &lt;/ul&gt; 
+</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;Đóng kín: Bảo quản bánh trong lọ thủy tinh đậy kín nắp, để ở nơi khô thoáng sẽ bảo quản được lâu hơn.&lt;/li&gt;
+               &lt;li&gt;Hạn sử dụng: Sản phẩm tại Softy Bakery thường có hạn sử dụng ngắn hạn để đảm bảo chất lượng và vệ sinh. Khi lưu trữ, nên chú ý đọc và tuân thủ hạn sử dụng để đảm bảo thực phẩm vẫn an toàn và ngon miệng.&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+               &lt;ul&gt;
+              &lt;li&gt;  Làm nguội để bánh mì bơ tỏi, nguội tự nhiên trước khi bảo quản. Để chúng ở phòng nhiệt độ trong khoảng 20-30 phút sau khi làm xong.
+              &lt;/li&gt; 
+              &lt;li&gt; Sử dụng màng bọc thực phẩm hoặc túi ni lông để bọc kín từng chiếc bánh mì bơ tỏi riêng biệt. 
+              &lt;/li&gt;
+              &lt;li&gt; Đặt hộp đựng bánh mì bơ tỏi vào tủ lạnh. Tủ lạnh sẽ giữ cho bánh mì tươi lâu hơn. 
+              &lt;/li&gt;    
+                     &lt;li&gt;Hạn sử dụng bánh mì gà có thời gian sử dụng ngắn. nên ăn khi mua để có hương vị tuyệt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ul&gt;
+             &lt;li&gt;  Làm nguội để bánh mì chà bông phô mai nguội tự nhiên trước khi bảo quản. Để chúng ở phòng nhiệt độ trong khoảng 20-30 phút sau khi làm xong.
+             &lt;/li&gt;
+             &lt;li&gt;Bọc kín: Sử dụng màng bọc thực phẩm hoặc túi ni lông để bọc kín từng chiếc bánh mì chà bông phô mai riêng biệt. Đảm bảo không có không khí bên trong túi hoặc màng bọc.
+             &lt;/li&gt;
+             &lt;li&gt;Đặt hộp đựng bánh mì thịt nguội vào tủ lạnh. Tủ lạnh sẽ giữ cho bánh mì tươi lâu hơn.
+             &lt;/li&gt;
+   &lt;li&gt;Hạn sử dụng bánh mì gà có thời gian sử dụng ngắn. nên ăn khi mua để có hương vị tuyệt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+               &lt;ul&gt;
+              &lt;li&gt;  Làm nguội: Để bánh mì ốp la nguội tự nhiên trước khi bảo quản. Để chúng ở phòng nhiệt độ trong khoảng 20-30 phút sau khi làm xong.
+              &lt;/li&gt; 
+              &lt;li&gt;             
+ Sử dụng màng bọc thực phẩm hoặc túi ni lông để bọc kín từng chiếc bánh mì ốp la riêng biệt.
+              &lt;/li&gt;
+              &lt;li&gt;Đặt hộp đựng bánh mì ốp la vào tủ lạnh. Tủ lạnh sẽ giữ cho bánh mì tươi lâu hơn. 
+              &lt;/li&gt;    
+                    &lt;li&gt;Hạn sử dụng bánh mì gà có thời gian sử dụng ngắn. nên ăn khi mua để có hương vị tuyệt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+               &lt;ul&gt;
+              &lt;li&gt;  Làm nguội: Để bánh mì ốp la nguội tự nhiên trước khi bảo quản. Để chúng ở phòng nhiệt độ trong khoảng 20-30 phút sau khi làm xong.
+              &lt;/li&gt; 
+              &lt;li&gt;             
+ Sử dụng màng bọc thực phẩm hoặc túi ni lông để bọc kín từng chiếc bánh mì ốp la riêng biệt.
+              &lt;/li&gt;
+              &lt;li&gt;Đặt hộp đựng bánh mì ốp la vào tủ lạnh. Tủ lạnh sẽ giữ cho bánh mì tươi lâu hơn. 
+              &lt;/li&gt;    
+                  &lt;li&gt;Hạn sử dụng bánh mì gà có thời gian sử dụng ngắn. nên ăn khi mua để có hương vị tuyệt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+               &lt;ul&gt;
+              &lt;li&gt; Để bánh mì Gà nguội tự nhiên trước khi bảo quản. Để chúng ở phòng nhiệt độ trong khoảng 20-30 phút sau khi làm xong.
+              &lt;/li&gt; 
+              &lt;li&gt;  Sử dụng màng bọc thực phẩm hoặc túi ni lông để bọc kín từng chiếc bánh mì Gà riêng biệt. 
+              &lt;/li&gt;
+              &lt;li&gt; Đặt hộp đựng bánh mì Gà vào tủ lạnh. Tủ lạnh sẽ giữ cho bánh mì tươi lâu hơn. 
+              &lt;/li&gt;    
+                    &lt;li&gt;Hạn sử dụng bánh mì gà có thời gian sử dụng ngắn. nên ăn khi mua để có hương vị tuyệt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ul&gt;
+            &lt;li&gt;Mức nhiệt độ thích hợp nhất để bảo quản bánh kem là từ 2 – 8 độ C.  Bên cạnh đó bánh sẽ đứng form, không có hiện tượng “toát mồ hôi” gây mất thẩm mỹ.
+            &lt;/li&gt;
+    &lt;li&gt;
+Lưu ý, trong quá trình bảo quản không nên để bánh kem ở cạnh những thực phẩm khác, đặc biệt là những thực phẩm có mùi và tươi sống.
+            &lt;/li&gt;
+ &lt;li&gt;Bảo quản bánh kem sinh nhật theo cách này có thể sử dụng lên tới một tháng. &lt;/li&gt;
+				&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;ul&gt;
+   &lt;li&gt;Bánh su kem có  nhiệt độ duy trì ở mức từ 4 – 8 độ.
+            &lt;/li&gt;
+            &lt;li&gt;Bánh su kem sau khi làm xong để trong hộp kín và cho vào ngăn mát tủ lạnh có thể để được 2 - 3 ngày .Tuy nhiên chỉ nên để bánh tối đa 1 ngày vì bánh để lâu sẽ bị khô và mất đi vị thơm ngon của chúng.
+            &lt;/li&gt;
+				&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt;Bảo quản chocolate trong nhiệt độ từ 18-20 độ C và độ ẩm trong khoảng từ 50 - 60%&lt;/li&gt;
+ &lt;li&gt;bọc kín socola để tránh tiếp xúc trực tiếp với ánh nắng mặt trời..&lt;/li&gt;
+&lt;li&gt;Hạn sử dụng bảo quản chocolate trong tủ lạnh có thể để đén 3 tháng  &lt;/li&gt;               
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt; Bánh cần bảo quản đông từ -10 đến -15 độ.&lt;/li&gt;
+&lt;li&gt;Đóng hộp kín&lt;/li&gt;
+ &lt;li&gt;Tránh tiếp xúc với ánh nắng trực tiếp&lt;/li&gt;
+   &lt;li&gt;Hạn sử dụng bánh su kem chocolate khi bảo quản lạnh trong 1 – 2 ngày là tốt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt;Thường được bảo quản ở nhiệt độ 0-4 độ.&lt;/li&gt;
+ &lt;li&gt;Tránh tiếp xúc với ánh nắng trực tiếp&lt;/li&gt;
+&lt;li&gt;Hạn sử dụng bánh su kem chocolate khi bảo quản lạnh trong 24h là tốt nhất&lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+  &lt;li&gt;
+Sử dụng giấy bạc hoặc túi zip giúp họ bảo quản bánh mì giòn ngon, không quá khô mà vẫn giữ được một độ ẩm nhất định
+&lt;/li&gt;    
+               &lt;li&gt;Bảo quản tại tủ lạnh  trong ngăn đá (ngăn đông) của tủ lạnh.
+&lt;/li&gt;
+ &lt;li&gt;Tránh tiếp xúc với ánh nắng trực tiếp&lt;/li&gt;
+    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+  &lt;li&gt;
+Trước khi đặt bánh vào trong tủ lạnh cần phải bọc thật kín, như vậy sẽ tránh được tình trạng lên men và nhanh hỏng.
+&lt;/li&gt;    
+               &lt;li&gt;Bảo quản tại tủ lạnh ở nhiệt độ tủ lạnh thường khoảng 4-7 độ
+&lt;/li&gt;
+ &lt;li&gt;Tránh tiếp xúc với ánh nắng trực tiếp&lt;/li&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;ul&gt;
+                  li&gt;Đóng hộp kín hoặc bỏ túi nilong&lt;/li&gt;
+                  &lt;li&gt; Bảo quản bánh mì nho khô ở nhiệt độ mát mẻ và khô, thường từ 15-21 &lt;/li&gt;
+                    &lt;li&gt;Tránh độ ẩm vì bánh mì nho khô thường bị hấp thụ độ ẩm, vì vậy hãy tránh để chúng tiếp xúc với môi trường có độ ẩm cao&lt;/li&gt;
+                 &lt;li&gt;Bánh sẽ chỉ ngon khi được sử dụng trong khoảng 1 – 2 ngày đầu.&lt;/li&gt;
+                &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+   &lt;li&gt;Bảo quản tại tủ lạnh đợi cafe nguội thì bạn hãy cho vào bình thủy tinh, đậy nắp và bỏ vào ngăn mát tủ lạnh trong 24 tiếng&lt;/li&gt;
+&lt;li&gt;Tránh ánh nắng trực tiếp.&lt;/li&gt;               
+&lt;li&gt;Hạn sử dụng bánh su kem chocolate khi bảo quản lạnh trong 24h là tốt nhất&lt;/li&gt;               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt;Bảo quản tại tủ lạnh nhiệt độ từ 0 – 4 độ C.&lt;/li&gt;
+  &lt;li&gt;Đóng kín: Cho vào bình kín để giữ được hương vị nguyên bản&lt;/li&gt;
+   &lt;li&gt;Hạn sử dụng bánh su kem chocolate khi bảo quản lạnh trong 24h là tốt nhất&lt;/li&gt;  
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt;Bảo quản tại tủ lạnh nhiệt độ từ 0 – 4 độ C.&lt;/li&gt;
+  &lt;li&gt;Đóng kín: Cho vào bình kín để giữ được hương vị nguyên bản&lt;/li&gt;
+      &lt;li&gt;Hạn sử dụng bánh su kem chocolate khi bảo quản lạnh trong 24h là tốt nhất&lt;/li&gt;  
+               &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+               &lt;li&gt;Bảo quản bịch nilon kín hay bao bì đựng bánh rồi cho vào ngăn lạnh để tránh phần topping bị mềm&lt;/li&gt;
+   &lt;li&gt;Bánh Papparoti Chocolate tại Softy Bakery t có thể bảo quản bánh được trong 2- 3 ngày. &lt;/li&gt;
+               &lt;/ul&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -571,24 +751,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -905,380 +1082,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF02CF1-2218-4B41-BA3E-D7089FA2F112}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="43.3984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.8984375" style="1"/>
+    <col min="1" max="1" width="12.69921875" style="3" customWidth="1"/>
+    <col min="2" max="4" width="38.69921875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>37</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>42</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>43</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44</v>
-      </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
